--- a/data/trans_orig/P16A20-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A20-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6820</v>
+        <v>6038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003960723118466982</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01439423208537607</v>
+        <v>0.01274443372752563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5889</v>
+        <v>7000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006370662965373959</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01920190828391748</v>
+        <v>0.02282395160889367</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3830</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9984</v>
+        <v>9809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004907708598896839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001307025469734938</v>
+        <v>0.001305791387034603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01279249671361359</v>
+        <v>0.01256779604360547</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>471900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>466956</v>
+        <v>467738</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>473776</v>
@@ -824,7 +824,7 @@
         <v>0.996039276881533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9856057679146232</v>
+        <v>0.9872555662724745</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>304726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300791</v>
+        <v>299680</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>306680</v>
@@ -845,7 +845,7 @@
         <v>0.9936293370346261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9807980917160825</v>
+        <v>0.9771760483911062</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>776627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>770473</v>
+        <v>770648</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>779437</v>
+        <v>779438</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9950922914011031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9872075032863864</v>
+        <v>0.9874322039563945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9986929745302651</v>
+        <v>0.9986942086129654</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3957</v>
+        <v>5439</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002513653439155871</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01078471287146805</v>
+        <v>0.01482157633454024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>4114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1077</v>
+        <v>975</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9656</v>
+        <v>10090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01106287584453194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002896337002478891</v>
+        <v>0.002621532430887534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02596681179491036</v>
+        <v>0.02713405633778291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -1003,19 +1003,19 @@
         <v>5036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1996</v>
+        <v>1894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11704</v>
+        <v>11124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006816793287674703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002701662498377881</v>
+        <v>0.002564059236139743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01584254662828589</v>
+        <v>0.01505728619816814</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>366012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362977</v>
+        <v>361495</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>366934</v>
@@ -1041,7 +1041,7 @@
         <v>0.9974863465608441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.98921528712853</v>
+        <v>0.9851784236654598</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>367751</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>362209</v>
+        <v>361775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370788</v>
+        <v>370890</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9889371241554681</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9740331882050897</v>
+        <v>0.9728659436622171</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971036629975211</v>
+        <v>0.9973784675691124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>708</v>
@@ -1074,19 +1074,19 @@
         <v>733763</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>727095</v>
+        <v>727675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736803</v>
+        <v>736905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9931832067123253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9841574533717143</v>
+        <v>0.9849427138018318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972983375016222</v>
+        <v>0.9974359407638602</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8325</v>
+        <v>9207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005297520082627558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001496619242006801</v>
+        <v>0.001504994157193005</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01534967412264462</v>
+        <v>0.01697536750872002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5669</v>
+        <v>5477</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005961032813011732</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03378754929081568</v>
+        <v>0.0326429065840287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1220,19 +1220,19 @@
         <v>3873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8945</v>
+        <v>10507</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005454278710231401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001400186151627161</v>
+        <v>0.001405226651162187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01259537285123263</v>
+        <v>0.01479546432392475</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>534064</v>
+        <v>533182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541577</v>
+        <v>541573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9947024799173725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9846503258773555</v>
+        <v>0.9830246324912802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985033807579932</v>
+        <v>0.998495005842807</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -1270,7 +1270,7 @@
         <v>166782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162113</v>
+        <v>162305</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>167782</v>
@@ -1279,7 +1279,7 @@
         <v>0.9940389671869883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9662124507091855</v>
+        <v>0.9673570934159714</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>706298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>701226</v>
+        <v>699664</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>709177</v>
+        <v>709173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9945457212897686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9874046271487671</v>
+        <v>0.9852045356760742</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985998138483729</v>
+        <v>0.9985947733488378</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2891</v>
+        <v>3046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12285</v>
+        <v>13656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005539383011523923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002334688260342968</v>
+        <v>0.002459944625042782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009920752321167979</v>
+        <v>0.01102771350349753</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5148</v>
+        <v>4511</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001258557472569742</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007207012874168354</v>
+        <v>0.006315455556323722</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1437,19 +1437,19 @@
         <v>7759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3732</v>
+        <v>3741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14565</v>
+        <v>15223</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003973419687682424</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001911482090259277</v>
+        <v>0.001916130020608568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007459340734417065</v>
+        <v>0.007796387894570004</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1231474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1226049</v>
+        <v>1224678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1235443</v>
+        <v>1235288</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9944606169884761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9900792476788315</v>
+        <v>0.9889722864965025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997665311739657</v>
+        <v>0.9975400553749572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>693</v>
@@ -1487,7 +1487,7 @@
         <v>713386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709137</v>
+        <v>709774</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>714285</v>
@@ -1496,7 +1496,7 @@
         <v>0.9987414425274302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9927929871258327</v>
+        <v>0.9936845444436763</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>1944861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1938055</v>
+        <v>1937397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1948888</v>
+        <v>1948879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9960265803123176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9925406592655831</v>
+        <v>0.9922036121054304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9980885179097407</v>
+        <v>0.9980838699793915</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7005</v>
+        <v>5902</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00552283913311091</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02004009740292512</v>
+        <v>0.01688510029131056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1633,19 +1633,19 @@
         <v>3765</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8777</v>
+        <v>9048</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006619640644745942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001676803683760442</v>
+        <v>0.001657572259136085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01543219023022092</v>
+        <v>0.01590806295914606</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1654,19 +1654,19 @@
         <v>5695</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2566</v>
+        <v>1982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12646</v>
+        <v>11791</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006202154598087263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002793988856032472</v>
+        <v>0.002158256548778247</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01377109034932775</v>
+        <v>0.01284006162427024</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1683,7 @@
         <v>347607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>342532</v>
+        <v>343635</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>349537</v>
@@ -1692,7 +1692,7 @@
         <v>0.9944771608668891</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9799599025970751</v>
+        <v>0.9831148997086895</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1704,19 +1704,19 @@
         <v>564987</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>559975</v>
+        <v>559704</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>567798</v>
+        <v>567809</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.993380359355254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9845678097697791</v>
+        <v>0.9840919370408538</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9983231963162396</v>
+        <v>0.9983424277408639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>872</v>
@@ -1725,19 +1725,19 @@
         <v>912594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>905643</v>
+        <v>906498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>915723</v>
+        <v>916307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9937978454019127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9862289096506718</v>
+        <v>0.9871599383757297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9972060111439667</v>
+        <v>0.9978417434512217</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>7031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2996</v>
+        <v>3033</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13998</v>
+        <v>14058</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005630392324716111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002399090803718982</v>
+        <v>0.002428903093249629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01120924348259122</v>
+        <v>0.01125795545422415</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1863,19 +1863,19 @@
         <v>7031</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3040</v>
+        <v>3000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14187</v>
+        <v>14065</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004545047084699823</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001965342038787487</v>
+        <v>0.001939245013571332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009170720951454703</v>
+        <v>0.009091977471616511</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>1241729</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1234762</v>
+        <v>1234702</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1245764</v>
+        <v>1245727</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9943696076752839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9887907565174088</v>
+        <v>0.9887420445457759</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.997600909196281</v>
+        <v>0.9975710969067504</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1537</v>
@@ -1926,19 +1926,19 @@
         <v>1539929</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1532773</v>
+        <v>1532895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1543920</v>
+        <v>1543960</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9954549529153002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9908292790485453</v>
+        <v>0.9909080225283836</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9980346579612125</v>
+        <v>0.9980607549864287</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>14462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8285</v>
+        <v>8539</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23740</v>
+        <v>22932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004423813389084868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002534393633338386</v>
+        <v>0.002611928663659192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007261640020243674</v>
+        <v>0.007014526136709223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2051,19 +2051,19 @@
         <v>18763</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11713</v>
+        <v>10951</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28869</v>
+        <v>28068</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005554181637124159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003467273894375783</v>
+        <v>0.003241666926749928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00854588168859482</v>
+        <v>0.008308638915182949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -2072,19 +2072,19 @@
         <v>33225</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23650</v>
+        <v>23662</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45703</v>
+        <v>46269</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004998261137026829</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00355789723720943</v>
+        <v>0.003559656511350406</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006875369879844891</v>
+        <v>0.006960540713986251</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3254710</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3245432</v>
+        <v>3246240</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3260887</v>
+        <v>3260633</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9955761866109152</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9927383599797562</v>
+        <v>0.9929854738632907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9974656063666616</v>
+        <v>0.9973880713363408</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3277</v>
@@ -2122,19 +2122,19 @@
         <v>3359361</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3349255</v>
+        <v>3350056</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3366411</v>
+        <v>3367173</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9944458183628758</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9914541183114051</v>
+        <v>0.991691361084817</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9965327261056243</v>
+        <v>0.99675833307325</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6468</v>
@@ -2143,19 +2143,19 @@
         <v>6614071</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6601593</v>
+        <v>6601027</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6623646</v>
+        <v>6623634</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9950017388629732</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9931246301201551</v>
+        <v>0.9930394592860134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9964421027627907</v>
+        <v>0.9964403434886493</v>
       </c>
     </row>
     <row r="24">
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5375</v>
+        <v>6841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002370688536166001</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01229294311017641</v>
+        <v>0.01564620712637561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2510,19 +2510,19 @@
         <v>9519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4268</v>
+        <v>4297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18081</v>
+        <v>18895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0302726066242987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01357161857090078</v>
+        <v>0.01366647241750624</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05749866245349634</v>
+        <v>0.06008915961310575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2531,19 +2531,19 @@
         <v>10556</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5216</v>
+        <v>5209</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19279</v>
+        <v>20089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01404327732385567</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006939653404079618</v>
+        <v>0.006930361170618958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02564901362290802</v>
+        <v>0.02672604120863434</v>
       </c>
     </row>
     <row r="5">
@@ -2560,7 +2560,7 @@
         <v>436175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431836</v>
+        <v>430370</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2569,7 +2569,7 @@
         <v>0.997629311463834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9877070568898223</v>
+        <v>0.9843537928736243</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2581,19 +2581,19 @@
         <v>304935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>296373</v>
+        <v>295559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310186</v>
+        <v>310157</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9697273933757014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9425013375465038</v>
+        <v>0.9399108403868938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9864283814290993</v>
+        <v>0.9863335275824937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>678</v>
@@ -2602,19 +2602,19 @@
         <v>741109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732386</v>
+        <v>731576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746449</v>
+        <v>746456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9859567226761443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9743509863770919</v>
+        <v>0.9732739587913654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9930603465959204</v>
+        <v>0.993069638829381</v>
       </c>
     </row>
     <row r="6">
@@ -2706,19 +2706,19 @@
         <v>2856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8671</v>
+        <v>8253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00684981899789433</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002214693721207236</v>
+        <v>0.002199947742366655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02079201679541525</v>
+        <v>0.01979019398211504</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2727,19 +2727,19 @@
         <v>11001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5194</v>
+        <v>5842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20907</v>
+        <v>21203</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03280685149237084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01548867945884828</v>
+        <v>0.01742261859600023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06234929271468208</v>
+        <v>0.0632340349924967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2748,19 +2748,19 @@
         <v>13857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7741</v>
+        <v>7205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25185</v>
+        <v>23983</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01841888724312432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01028931745096445</v>
+        <v>0.009577223698374137</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03347536884415776</v>
+        <v>0.03187758772856764</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>414162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>408347</v>
+        <v>408765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416094</v>
+        <v>416101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9931501810021057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9792079832045847</v>
+        <v>0.9802098060178847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977853062787928</v>
+        <v>0.9978000522576334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>294</v>
@@ -2798,19 +2798,19 @@
         <v>324314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314408</v>
+        <v>314112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>330121</v>
+        <v>329473</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9671931485076292</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9376507072853175</v>
+        <v>0.9367659650075029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9845113205411516</v>
+        <v>0.9825773814039998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>664</v>
@@ -2819,19 +2819,19 @@
         <v>738476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>727148</v>
+        <v>728350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744592</v>
+        <v>745128</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9815811127568757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9665246311558424</v>
+        <v>0.9681224122714325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9897106825490356</v>
+        <v>0.9904227763016259</v>
       </c>
     </row>
     <row r="9">
@@ -2923,19 +2923,19 @@
         <v>3107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8840</v>
+        <v>9232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0049452064601693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00155756506995131</v>
+        <v>0.00155455992896992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01406985466841443</v>
+        <v>0.0146922299486505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2944,19 +2944,19 @@
         <v>4893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11678</v>
+        <v>10804</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01888619956481809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007421622396522003</v>
+        <v>0.00738829844742589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04507217146025735</v>
+        <v>0.04169930016564509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2965,19 +2965,19 @@
         <v>8000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3927</v>
+        <v>3987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16260</v>
+        <v>15066</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009015377233326866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004424961765753304</v>
+        <v>0.00449289528180869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01832304937278296</v>
+        <v>0.01697787240480877</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>625222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619489</v>
+        <v>619097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627350</v>
+        <v>627352</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9950547935398307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9859301453315841</v>
+        <v>0.9853077700513504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984424349300487</v>
+        <v>0.9984454400710301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -3015,19 +3015,19 @@
         <v>254195</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247410</v>
+        <v>248284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257165</v>
+        <v>257174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9811138004351819</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9549278285397426</v>
+        <v>0.9583006998343552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.992578377603478</v>
+        <v>0.9926117015525742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>825</v>
@@ -3036,19 +3036,19 @@
         <v>879417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>871157</v>
+        <v>872351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>883490</v>
+        <v>883430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9909846227666731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9816769506272172</v>
+        <v>0.9830221275951911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955750382342466</v>
+        <v>0.9955071047181913</v>
       </c>
     </row>
     <row r="12">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4849</v>
+        <v>5386</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0008347303251516971</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.004189847293064649</v>
+        <v>0.004653627638112032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3161,19 +3161,19 @@
         <v>35289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24972</v>
+        <v>24835</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48053</v>
+        <v>48300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04609112960689865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03261614621576642</v>
+        <v>0.0324371757004185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06276102039621975</v>
+        <v>0.06308455550208633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3182,19 +3182,19 @@
         <v>36255</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25430</v>
+        <v>24736</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50299</v>
+        <v>50002</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01885397312527082</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01322444765901146</v>
+        <v>0.01286371782310355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02615694419436542</v>
+        <v>0.02600287705553526</v>
       </c>
     </row>
     <row r="14">
@@ -3211,7 +3211,7 @@
         <v>1156349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1152466</v>
+        <v>1151929</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1157315</v>
@@ -3220,7 +3220,7 @@
         <v>0.9991652696748483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9958101527069354</v>
+        <v>0.9953463723618881</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3232,19 +3232,19 @@
         <v>730354</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>717590</v>
+        <v>717343</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>740671</v>
+        <v>740808</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9539088703931013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9372389796037803</v>
+        <v>0.9369154444979135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9673838537842339</v>
+        <v>0.9675628242995813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -3253,19 +3253,19 @@
         <v>1886704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1872660</v>
+        <v>1872957</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1897529</v>
+        <v>1898223</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9811460268747292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9738430558056346</v>
+        <v>0.9739971229444647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9867755523409886</v>
+        <v>0.9871362821768964</v>
       </c>
     </row>
     <row r="15">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5124</v>
+        <v>4747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001843232419538785</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01003592867125995</v>
+        <v>0.00929648894132157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3378,19 +3378,19 @@
         <v>26009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16584</v>
+        <v>17052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38464</v>
+        <v>36367</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03429623905764785</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02186849079343641</v>
+        <v>0.02248447065723808</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05071943553950863</v>
+        <v>0.04795424638593814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -3399,19 +3399,19 @@
         <v>26950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17619</v>
+        <v>18266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37908</v>
+        <v>39111</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02123804231764357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01388481576018422</v>
+        <v>0.01439446339523871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02987279653511634</v>
+        <v>0.03082091579795286</v>
       </c>
     </row>
     <row r="17">
@@ -3428,7 +3428,7 @@
         <v>509655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>505472</v>
+        <v>505849</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>510596</v>
@@ -3437,7 +3437,7 @@
         <v>0.9981567675804612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9899640713287393</v>
+        <v>0.9907035110586784</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3449,19 +3449,19 @@
         <v>732359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>719904</v>
+        <v>722001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>741784</v>
+        <v>741316</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9657037609423521</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9492805644604915</v>
+        <v>0.9520457536140619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9781315092065636</v>
+        <v>0.977515529342762</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1161</v>
@@ -3470,19 +3470,19 @@
         <v>1242014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1231056</v>
+        <v>1229853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1251345</v>
+        <v>1250698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9787619576823564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9701272034648836</v>
+        <v>0.9691790842020475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861151842398158</v>
+        <v>0.9856055366047614</v>
       </c>
     </row>
     <row r="18">
@@ -3587,19 +3587,19 @@
         <v>35438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23906</v>
+        <v>24960</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50745</v>
+        <v>51426</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03203466126891977</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02161036746878815</v>
+        <v>0.02256255114106615</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04587198945417555</v>
+        <v>0.04648738929499192</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -3608,19 +3608,19 @@
         <v>35438</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24252</v>
+        <v>24843</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50109</v>
+        <v>49634</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02582793523444826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01767538786360016</v>
+        <v>0.01810617892180388</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03652073493801253</v>
+        <v>0.03617420219623018</v>
       </c>
     </row>
     <row r="20">
@@ -3650,19 +3650,19 @@
         <v>1070802</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1055495</v>
+        <v>1054814</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1082334</v>
+        <v>1081280</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9679653387310803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9541280105458245</v>
+        <v>0.953512610705008</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9783896325312119</v>
+        <v>0.9774374488589338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1273</v>
@@ -3671,19 +3671,19 @@
         <v>1336643</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1321972</v>
+        <v>1322447</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1347829</v>
+        <v>1347238</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9741720647655517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9634792650619877</v>
+        <v>0.96382579780377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9823246121363999</v>
+        <v>0.9818938210781963</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>8907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4756</v>
+        <v>4661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16784</v>
+        <v>16555</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002607315063621682</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001392014798709054</v>
+        <v>0.001364257155452978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004913014630428119</v>
+        <v>0.004845805339890234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -3796,19 +3796,19 @@
         <v>122150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101712</v>
+        <v>101847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146123</v>
+        <v>147484</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03451426556036895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02873955993531538</v>
+        <v>0.0287774897532865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04128796742747146</v>
+        <v>0.04167258413543301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -3817,19 +3817,19 @@
         <v>131057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107980</v>
+        <v>109552</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155959</v>
+        <v>155407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01884244821446495</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01552463672896134</v>
+        <v>0.01575056897312524</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02242269026378999</v>
+        <v>0.02234325447034346</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>3407403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3399526</v>
+        <v>3399755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3411554</v>
+        <v>3411649</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9973926849363783</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9950869853695721</v>
+        <v>0.99515419466011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.998607985201291</v>
+        <v>0.9986357428445483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3168</v>
@@ -3867,19 +3867,19 @@
         <v>3416958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3392985</v>
+        <v>3391624</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3437396</v>
+        <v>3437261</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.965485734439631</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.958712032572529</v>
+        <v>0.958327415864567</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9712604400646847</v>
+        <v>0.9712225102467136</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6358</v>
@@ -3888,19 +3888,19 @@
         <v>6824361</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6799459</v>
+        <v>6800011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6847438</v>
+        <v>6845866</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9811575517855351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.97757730973621</v>
+        <v>0.9776567455296565</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9844753632710386</v>
+        <v>0.9842494310268748</v>
       </c>
     </row>
     <row r="24">
@@ -4234,19 +4234,19 @@
         <v>2935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7685</v>
+        <v>7915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006839277158254409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002166748321662827</v>
+        <v>0.002171477054466167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01790905289013191</v>
+        <v>0.01844574443060015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4255,19 +4255,19 @@
         <v>13375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7688</v>
+        <v>7717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21588</v>
+        <v>22008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03853736089967413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02215260762701698</v>
+        <v>0.02223559680166897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06220391596404906</v>
+        <v>0.06341501849044048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4276,19 +4276,19 @@
         <v>16309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9749</v>
+        <v>9873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26240</v>
+        <v>25270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02101310849037429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01256060607801343</v>
+        <v>0.01272036785589489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03380844514250421</v>
+        <v>0.03255814976035883</v>
       </c>
     </row>
     <row r="5">
@@ -4305,19 +4305,19 @@
         <v>426157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421407</v>
+        <v>421177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428162</v>
+        <v>428160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9931607228417456</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9820909471098683</v>
+        <v>0.9815542555693999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9978332516783371</v>
+        <v>0.9978285229455338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -4326,19 +4326,19 @@
         <v>333680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325467</v>
+        <v>325047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>339367</v>
+        <v>339338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9614626391003259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9377960840359515</v>
+        <v>0.9365849815095595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9778473923729831</v>
+        <v>0.9777644031983311</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>711</v>
@@ -4347,19 +4347,19 @@
         <v>759838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749907</v>
+        <v>750877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766398</v>
+        <v>766274</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9789868915096257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9661915548574959</v>
+        <v>0.9674418502396414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9874393939219867</v>
+        <v>0.9872796321441051</v>
       </c>
     </row>
     <row r="6">
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4597</v>
+        <v>4570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002450135923084504</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01218498722341407</v>
+        <v>0.01211478395302697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -4472,19 +4472,19 @@
         <v>22686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14852</v>
+        <v>14028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34682</v>
+        <v>34858</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06093815234134729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03989564092066082</v>
+        <v>0.03768151659917568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09316293536148972</v>
+        <v>0.0936369201326963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4493,19 +4493,19 @@
         <v>23610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14760</v>
+        <v>14536</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35774</v>
+        <v>37539</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03150085958350438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01969297642292472</v>
+        <v>0.01939444271067905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04773053632635418</v>
+        <v>0.05008502136485078</v>
       </c>
     </row>
     <row r="8">
@@ -4522,7 +4522,7 @@
         <v>376303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372630</v>
+        <v>372657</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -4531,7 +4531,7 @@
         <v>0.9975498640769155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9878150127765862</v>
+        <v>0.987885216046973</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4543,19 +4543,19 @@
         <v>349587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>337591</v>
+        <v>337415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357421</v>
+        <v>358245</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9390618476586527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9068370646385102</v>
+        <v>0.9063630798673037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9601043590793392</v>
+        <v>0.9623184834008243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>686</v>
@@ -4564,19 +4564,19 @@
         <v>725890</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>713726</v>
+        <v>711961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734740</v>
+        <v>734964</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9684991404164957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9522694636736458</v>
+        <v>0.9499149786351496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9803070235770753</v>
+        <v>0.980605557289321</v>
       </c>
     </row>
     <row r="9">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7169</v>
+        <v>6331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003970970863928766</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01373676584077539</v>
+        <v>0.01213027017106925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4689,19 +4689,19 @@
         <v>3939</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9276</v>
+        <v>9005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02371093357693729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006072874699715443</v>
+        <v>0.006098113357180048</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05583972910747113</v>
+        <v>0.05420630498251374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -4710,19 +4710,19 @@
         <v>6011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2053</v>
+        <v>2638</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12872</v>
+        <v>12559</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008737081359243396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002983357368854465</v>
+        <v>0.003834026007713244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01870812794960705</v>
+        <v>0.01825381909139994</v>
       </c>
     </row>
     <row r="11">
@@ -4739,7 +4739,7 @@
         <v>519841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514745</v>
+        <v>515583</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>521914</v>
@@ -4748,7 +4748,7 @@
         <v>0.9960290291360713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9862632341592246</v>
+        <v>0.9878697298289307</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -4760,19 +4760,19 @@
         <v>162184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156847</v>
+        <v>157118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165114</v>
+        <v>165110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9762890664230627</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9441602708925287</v>
+        <v>0.9457936950174861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939271253002845</v>
+        <v>0.9939018866428199</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -4781,19 +4781,19 @@
         <v>682025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>675164</v>
+        <v>675477</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>685983</v>
+        <v>685398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9912629186407566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812918720503935</v>
+        <v>0.9817461809086001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970166426311455</v>
+        <v>0.9961659739922868</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>6322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2130</v>
+        <v>2276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12636</v>
+        <v>13781</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005498752626300747</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001852996557140521</v>
+        <v>0.001979360476790833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01099139699297622</v>
+        <v>0.01198740401878946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4906,19 +4906,19 @@
         <v>39952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28507</v>
+        <v>28190</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53504</v>
+        <v>54069</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04837550067401174</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0345170710227453</v>
+        <v>0.03413333506239648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06478399599642359</v>
+        <v>0.06546916495855526</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -4927,19 +4927,19 @@
         <v>46274</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33804</v>
+        <v>34327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62762</v>
+        <v>62921</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02342364052331573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01711165866128493</v>
+        <v>0.01737632031720402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03176975956286412</v>
+        <v>0.03185029147696537</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>1143316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1137002</v>
+        <v>1135857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147508</v>
+        <v>1147362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9945012473736993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9890086030070242</v>
+        <v>0.9880125959812105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9981470034428597</v>
+        <v>0.9980206395232092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>762</v>
@@ -4977,19 +4977,19 @@
         <v>785924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>772372</v>
+        <v>771807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>797369</v>
+        <v>797686</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9516244993259882</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9352160040035764</v>
+        <v>0.9345308350414447</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9654829289772547</v>
+        <v>0.9658666649376035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1859</v>
@@ -4998,19 +4998,19 @@
         <v>1929240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1912752</v>
+        <v>1912593</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1941710</v>
+        <v>1941187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9765763594766843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9682302404371359</v>
+        <v>0.9681497085230345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9828883413387151</v>
+        <v>0.9826236796827958</v>
       </c>
     </row>
     <row r="15">
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7415</v>
+        <v>7151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003251704161820266</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0119467155294504</v>
+        <v>0.01152064682811201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -5123,19 +5123,19 @@
         <v>40862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30029</v>
+        <v>29081</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54775</v>
+        <v>55030</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05534997776981038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04067560193077711</v>
+        <v>0.03939257510948295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07419606904932244</v>
+        <v>0.0745415835714303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -5144,19 +5144,19 @@
         <v>42880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30669</v>
+        <v>30617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56819</v>
+        <v>56924</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03155388184301332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02256792648611358</v>
+        <v>0.02252987388526316</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04181115473148649</v>
+        <v>0.04188827244951358</v>
       </c>
     </row>
     <row r="17">
@@ -5173,7 +5173,7 @@
         <v>618688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>613291</v>
+        <v>613555</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>620706</v>
@@ -5182,7 +5182,7 @@
         <v>0.9967482958381797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9880532844705495</v>
+        <v>0.988479353171888</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5194,19 +5194,19 @@
         <v>697382</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>683469</v>
+        <v>683214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708215</v>
+        <v>709163</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9446500222301897</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9258039309506775</v>
+        <v>0.92545841642857</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9593243980692229</v>
+        <v>0.9606074248905171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1256</v>
@@ -5215,19 +5215,19 @@
         <v>1316070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1302131</v>
+        <v>1302026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1328281</v>
+        <v>1328333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9684461181569867</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9581888452685137</v>
+        <v>0.9581117275504869</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9774320735138865</v>
+        <v>0.9774701261147372</v>
       </c>
     </row>
     <row r="18">
@@ -5332,19 +5332,19 @@
         <v>34828</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24389</v>
+        <v>25256</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48702</v>
+        <v>48676</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03218810133736251</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02254048103222095</v>
+        <v>0.02334102071744678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04501033184995278</v>
+        <v>0.04498627387345493</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -5353,19 +5353,19 @@
         <v>34828</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23699</v>
+        <v>24434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48503</v>
+        <v>49174</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02543754654365337</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01730925222620005</v>
+        <v>0.01784589214202847</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03542476842382042</v>
+        <v>0.0359149740752403</v>
       </c>
     </row>
     <row r="20">
@@ -5395,19 +5395,19 @@
         <v>1047197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1033323</v>
+        <v>1033349</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1057636</v>
+        <v>1056769</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9678118986626375</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9549896681500475</v>
+        <v>0.9550137261265451</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9774595189677791</v>
+        <v>0.9766589792825532</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1232</v>
@@ -5416,19 +5416,19 @@
         <v>1334342</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1320667</v>
+        <v>1319996</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1345471</v>
+        <v>1344736</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9745624534563466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9645752315761796</v>
+        <v>0.9640850259247599</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9826907477737999</v>
+        <v>0.9821541078579715</v>
       </c>
     </row>
     <row r="21">
@@ -5520,19 +5520,19 @@
         <v>14271</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8257</v>
+        <v>8166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24316</v>
+        <v>22935</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004215162842476155</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002438791906123703</v>
+        <v>0.002411997552419151</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007181831719477137</v>
+        <v>0.006773925847552555</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -5541,19 +5541,19 @@
         <v>155641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131870</v>
+        <v>132395</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182918</v>
+        <v>181631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04407113434740316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03733995249044537</v>
+        <v>0.03748871083565784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0517946015207766</v>
+        <v>0.05143026497048463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>157</v>
@@ -5562,19 +5562,19 @@
         <v>169913</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>147385</v>
+        <v>146577</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>199253</v>
+        <v>201979</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02456339369234981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02130670821759658</v>
+        <v>0.02118991521257864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02880491685281513</v>
+        <v>0.02919906278911179</v>
       </c>
     </row>
     <row r="23">
@@ -5591,19 +5591,19 @@
         <v>3371451</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3361406</v>
+        <v>3362787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3377465</v>
+        <v>3377556</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9957848371575239</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9928181682805225</v>
+        <v>0.9932260741524476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9975612080938763</v>
+        <v>0.9975880024475809</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3183</v>
@@ -5612,19 +5612,19 @@
         <v>3375955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3348678</v>
+        <v>3349965</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3399726</v>
+        <v>3399201</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9559288656525968</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9482053984792234</v>
+        <v>0.9485697350295154</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9626600475095546</v>
+        <v>0.9625112891643421</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6393</v>
@@ -5633,19 +5633,19 @@
         <v>6747405</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6718065</v>
+        <v>6715339</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6769933</v>
+        <v>6770741</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9754366063076502</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9711950831471851</v>
+        <v>0.9708009372108882</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9786932917824035</v>
+        <v>0.9788100847874217</v>
       </c>
     </row>
     <row r="24">
@@ -5979,19 +5979,19 @@
         <v>5557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2308</v>
+        <v>2451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11492</v>
+        <v>11488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01009290609989182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004191291061191624</v>
+        <v>0.004451700804030518</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02087129363955663</v>
+        <v>0.02086424726358432</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -6000,19 +6000,19 @@
         <v>43588</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33114</v>
+        <v>33836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55419</v>
+        <v>54756</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08924430281850881</v>
+        <v>0.0892443028185088</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06779854540834546</v>
+        <v>0.06927788727242352</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1134687434195905</v>
+        <v>0.1121102529949021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -6021,19 +6021,19 @@
         <v>49145</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38139</v>
+        <v>37333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62757</v>
+        <v>61725</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0472991805436804</v>
+        <v>0.04729918054368039</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03670613084418562</v>
+        <v>0.03593083274668985</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06040000431935597</v>
+        <v>0.05940631005926451</v>
       </c>
     </row>
     <row r="5">
@@ -6050,19 +6050,19 @@
         <v>545061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>539126</v>
+        <v>539130</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548310</v>
+        <v>548167</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9899070939001082</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9791287063604425</v>
+        <v>0.9791357527364163</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958087089388084</v>
+        <v>0.9955482991959695</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -6071,19 +6071,19 @@
         <v>444823</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>432992</v>
+        <v>433655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455297</v>
+        <v>454575</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9107556971814912</v>
+        <v>0.9107556971814911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8865312565804094</v>
+        <v>0.8878897470050978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9322014545916546</v>
+        <v>0.9307221127275764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1170</v>
@@ -6092,19 +6092,19 @@
         <v>989884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>976272</v>
+        <v>977304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1000890</v>
+        <v>1001696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9527008194563197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.939599995680644</v>
+        <v>0.9405936899407358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9632938691558144</v>
+        <v>0.9640691672533105</v>
       </c>
     </row>
     <row r="6">
@@ -6196,19 +6196,19 @@
         <v>4958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1760</v>
+        <v>1891</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10325</v>
+        <v>11364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01025982720589327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003641826587352667</v>
+        <v>0.003913677467772497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02136724612196817</v>
+        <v>0.02351793300153849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -6217,19 +6217,19 @@
         <v>32975</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25121</v>
+        <v>24782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42665</v>
+        <v>41776</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0779285459873655</v>
+        <v>0.07792854598736551</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05936865035111424</v>
+        <v>0.05856673373269733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1008287204821801</v>
+        <v>0.09872692839099163</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -6238,19 +6238,19 @@
         <v>37933</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28207</v>
+        <v>29715</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49619</v>
+        <v>51415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04185179146607806</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03112179362978654</v>
+        <v>0.0327852770770772</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05474563047749048</v>
+        <v>0.05672687678834884</v>
       </c>
     </row>
     <row r="8">
@@ -6267,19 +6267,19 @@
         <v>478254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472887</v>
+        <v>471848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481452</v>
+        <v>481321</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9897401727941068</v>
+        <v>0.9897401727941066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9786327538780317</v>
+        <v>0.9764820669984615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9963581734126473</v>
+        <v>0.9960863225322272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>540</v>
@@ -6288,19 +6288,19 @@
         <v>390168</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>380478</v>
+        <v>381367</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>398022</v>
+        <v>398361</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9220714540126345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8991712795178204</v>
+        <v>0.9012730716090086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9406313496488857</v>
+        <v>0.9414332662673032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1015</v>
@@ -6309,19 +6309,19 @@
         <v>868422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>856736</v>
+        <v>854940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>878148</v>
+        <v>876640</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9581482085339219</v>
+        <v>0.958148208533922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9452543695225095</v>
+        <v>0.9432731232116516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9688782063702135</v>
+        <v>0.9672147229229237</v>
       </c>
     </row>
     <row r="9">
@@ -6413,19 +6413,19 @@
         <v>2434</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7253</v>
+        <v>7163</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.005160188251912582</v>
+        <v>0.005160188251912581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001647645330379601</v>
+        <v>0.001631599225036544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01537890054085975</v>
+        <v>0.01518882196297717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6434,19 +6434,19 @@
         <v>17063</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11675</v>
+        <v>11792</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24326</v>
+        <v>24166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09100631111765291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06226716324225419</v>
+        <v>0.06289354733286563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1297413174733568</v>
+        <v>0.1288866189342471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -6455,19 +6455,19 @@
         <v>19497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13288</v>
+        <v>13310</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28116</v>
+        <v>28246</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02958090616219883</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02016125483047441</v>
+        <v>0.02019412176523544</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04265810960857193</v>
+        <v>0.04285487674117099</v>
       </c>
     </row>
     <row r="11">
@@ -6484,19 +6484,19 @@
         <v>469178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464359</v>
+        <v>464449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470835</v>
+        <v>470843</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9948398117480874</v>
+        <v>0.9948398117480873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9846210994591402</v>
+        <v>0.984811178037024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983523546696206</v>
+        <v>0.9983684007749635</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -6505,19 +6505,19 @@
         <v>170434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>163171</v>
+        <v>163331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175822</v>
+        <v>175705</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.908993688882347</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.870258682526643</v>
+        <v>0.871113381065753</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9377328367577457</v>
+        <v>0.9371064526671344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>747</v>
@@ -6526,19 +6526,19 @@
         <v>639612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630993</v>
+        <v>630863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645821</v>
+        <v>645799</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9704190938378013</v>
+        <v>0.9704190938378011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9573418903914283</v>
+        <v>0.9571451232588288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9798387451695257</v>
+        <v>0.9798058782347645</v>
       </c>
     </row>
     <row r="12">
@@ -6630,19 +6630,19 @@
         <v>18150</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11283</v>
+        <v>11719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28037</v>
+        <v>27603</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01603613450310068</v>
+        <v>0.01603613450310067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009968771898354614</v>
+        <v>0.01035361172719777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02477068024947313</v>
+        <v>0.02438746209924065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -6651,19 +6651,19 @@
         <v>74743</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61491</v>
+        <v>61272</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89940</v>
+        <v>87412</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08688658941139266</v>
+        <v>0.08688658941139263</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07148093972689008</v>
+        <v>0.07122643857838232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1045520388786403</v>
+        <v>0.1016140416632432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -6672,19 +6672,19 @@
         <v>92893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77729</v>
+        <v>77611</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110492</v>
+        <v>111872</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04663137732067628</v>
+        <v>0.04663137732067629</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03901911414793328</v>
+        <v>0.03896004758359373</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05546551118590703</v>
+        <v>0.05615827651103417</v>
       </c>
     </row>
     <row r="14">
@@ -6701,19 +6701,19 @@
         <v>1113693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1103806</v>
+        <v>1104240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1120560</v>
+        <v>1120124</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9839638654968993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9752293197505266</v>
+        <v>0.9756125379007594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900312281016456</v>
+        <v>0.9896463882728024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1109</v>
@@ -6722,19 +6722,19 @@
         <v>785494</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>770297</v>
+        <v>772825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>798746</v>
+        <v>798965</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9131134105886073</v>
+        <v>0.9131134105886072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8954479611213594</v>
+        <v>0.8983859583367567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9285190602731099</v>
+        <v>0.9287735614216176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2206</v>
@@ -6743,19 +6743,19 @@
         <v>1899186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1881587</v>
+        <v>1880207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1914350</v>
+        <v>1914468</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9533686226793237</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9445344888140929</v>
+        <v>0.9438417234889657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9609808858520666</v>
+        <v>0.9610399524164062</v>
       </c>
     </row>
     <row r="15">
@@ -6847,19 +6847,19 @@
         <v>9187</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4772</v>
+        <v>4605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17083</v>
+        <v>17164</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01620335924197246</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008417039613505945</v>
+        <v>0.008121236313255039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03013020247918334</v>
+        <v>0.03027309080755321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>126</v>
@@ -6868,19 +6868,19 @@
         <v>74575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63067</v>
+        <v>61976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89298</v>
+        <v>88776</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08983540452729272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07597250575712035</v>
+        <v>0.07465869943848077</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1075710868321878</v>
+        <v>0.1069429706042662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -6889,19 +6889,19 @@
         <v>83762</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70295</v>
+        <v>70247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98969</v>
+        <v>99668</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05995385756274524</v>
+        <v>0.05995385756274525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05031472264419091</v>
+        <v>0.05028043629592815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07083901034408066</v>
+        <v>0.0713390730865965</v>
       </c>
     </row>
     <row r="17">
@@ -6918,19 +6918,19 @@
         <v>557789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>549893</v>
+        <v>549812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>562204</v>
+        <v>562371</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9837966407580278</v>
+        <v>0.9837966407580275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.969869797520816</v>
+        <v>0.9697269091924465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9915829603864942</v>
+        <v>0.991878763686745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1163</v>
@@ -6939,19 +6939,19 @@
         <v>755552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>740829</v>
+        <v>741351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>767060</v>
+        <v>768151</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9101645954727072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8924289131678121</v>
+        <v>0.8930570293957336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9240274942428796</v>
+        <v>0.9253413005615193</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1699</v>
@@ -6960,19 +6960,19 @@
         <v>1313341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1298134</v>
+        <v>1297435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1326808</v>
+        <v>1326856</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9400461424372548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9291609896559192</v>
+        <v>0.9286609269134033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.949685277355809</v>
+        <v>0.9497195637040714</v>
       </c>
     </row>
     <row r="18">
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15606</v>
+        <v>17219</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01429174713596657</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06578364221562899</v>
+        <v>0.07258223172261069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -7085,19 +7085,19 @@
         <v>56634</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45307</v>
+        <v>44856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72044</v>
+        <v>72742</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06724008143796059</v>
+        <v>0.06724008143796058</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05379186832758486</v>
+        <v>0.05325565461373775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08553540752894197</v>
+        <v>0.08636439042050213</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -7106,19 +7106,19 @@
         <v>60025</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46478</v>
+        <v>46474</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78892</v>
+        <v>78476</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05560427754690232</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04305499603095193</v>
+        <v>0.04305107978685024</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07308258562861407</v>
+        <v>0.07269719714644264</v>
       </c>
     </row>
     <row r="20">
@@ -7135,16 +7135,16 @@
         <v>233838</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221622</v>
+        <v>220009</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9857082528640334</v>
+        <v>0.9857082528640333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9342163577843703</v>
+        <v>0.9274177682773893</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7156,19 +7156,19 @@
         <v>785635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>770225</v>
+        <v>769527</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>796962</v>
+        <v>797413</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9327599185620394</v>
+        <v>0.9327599185620392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.914464592471058</v>
+        <v>0.9136356095794982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9462081316724152</v>
+        <v>0.9467443453862622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1179</v>
@@ -7177,19 +7177,19 @@
         <v>1019472</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1000605</v>
+        <v>1001021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1033019</v>
+        <v>1033023</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9443957224530976</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9269174143713848</v>
+        <v>0.9273028028535574</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9569450039690475</v>
+        <v>0.9569489202131498</v>
       </c>
     </row>
     <row r="21">
@@ -7281,19 +7281,19 @@
         <v>43676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31555</v>
+        <v>31727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58835</v>
+        <v>58655</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01269111172685022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009168929907496836</v>
+        <v>0.009218854198325598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01709577276493854</v>
+        <v>0.0170434897709676</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>473</v>
@@ -7302,19 +7302,19 @@
         <v>299578</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>270798</v>
+        <v>272457</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>328180</v>
+        <v>328314</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08249019502994043</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07456544711366427</v>
+        <v>0.07502233186178306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09036572544677071</v>
+        <v>0.09040263836285495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>521</v>
@@ -7323,19 +7323,19 @@
         <v>343255</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>313130</v>
+        <v>313402</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>375984</v>
+        <v>377961</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0485290902910203</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04427008485609065</v>
+        <v>0.04430855958219997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05315633427003806</v>
+        <v>0.05343581976815689</v>
       </c>
     </row>
     <row r="23">
@@ -7352,19 +7352,19 @@
         <v>3397812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3382653</v>
+        <v>3382833</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3409933</v>
+        <v>3409761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9873088882731498</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9829042272350613</v>
+        <v>0.9829565102290322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9908310700925032</v>
+        <v>0.990781145801674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4765</v>
@@ -7373,19 +7373,19 @@
         <v>3332106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3303504</v>
+        <v>3303370</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3360886</v>
+        <v>3359227</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9175098049700595</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9096342745532292</v>
+        <v>0.9095973616371447</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9254345528863357</v>
+        <v>0.9249776681382169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8016</v>
@@ -7394,19 +7394,19 @@
         <v>6729917</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6697188</v>
+        <v>6695211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6760042</v>
+        <v>6759770</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9514709097089799</v>
+        <v>0.9514709097089797</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9468436657299618</v>
+        <v>0.9465641802318432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9557299151439094</v>
+        <v>0.9556914404178001</v>
       </c>
     </row>
     <row r="24">
